--- a/tesla_safety_yoy.xlsx
+++ b/tesla_safety_yoy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianranasinghe/Documents/Research/tesla_safety/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianranasinghe/Documents/Research/tesla_autopilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2B61E5-8DC3-A544-BA53-5F3D32E35183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3132A591-DBF4-1C4A-B9A6-68A68A470BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{657DD2AE-9FAA-8845-A58B-718F9E17BBB3}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19940" xr2:uid="{657DD2AE-9FAA-8845-A58B-718F9E17BBB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$D$1:$F$25</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -138,14 +138,20 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1637,6 +1643,361 @@
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.46296</cdr:x>
+      <cdr:y>0.26496</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.83642</cdr:x>
+      <cdr:y>0.37892</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E008DF0E-3C09-EA61-EF00-73E576DB6581}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2857500" y="2362200"/>
+          <a:ext cx="2305050" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="E31937"/>
+              </a:solidFill>
+              <a:latin typeface="News Gothic MT" panose="020B0503020103020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Tesla</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="E31937"/>
+              </a:solidFill>
+              <a:latin typeface="News Gothic MT" panose="020B0503020103020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> has made significant progress on self-driving technology with driving miles until one accident increasing over 105% since Q3-2018 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="E31937"/>
+            </a:solidFill>
+            <a:latin typeface="News Gothic MT" panose="020B0503020103020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.2572</cdr:x>
+      <cdr:y>0.71368</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.63066</cdr:x>
+      <cdr:y>0.79772</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA6DECD-CAF0-797F-7CD4-E687C5364856}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1587500" y="6362700"/>
+          <a:ext cx="2305050" cy="749300"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="News Gothic MT" panose="020B0503020103020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>By comparison, the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="News Gothic MT" panose="020B0503020103020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> US average (using data reported by the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="News Gothic MT" panose="020B0503020103020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> NHTSA) has remained relatively constant </a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
 
@@ -1937,15 +2298,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78196C85-F470-7B4D-ABB1-385F3AAEA1BD}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="12"/>
+    <col min="1" max="1" width="10.83203125" style="11"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="6" customWidth="1"/>
@@ -1956,7 +2317,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
+      <c r="A1" s="10"/>
       <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1971,7 +2332,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="12">
         <v>18</v>
       </c>
       <c r="B2" t="s">
@@ -1991,7 +2352,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
+      <c r="A3" s="12"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -2022,7 +2383,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <v>19</v>
       </c>
       <c r="B4" t="s">
@@ -2050,16 +2411,16 @@
         <v>7</v>
       </c>
       <c r="M4" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J4,$B:$B,M$3)</f>
+        <f t="shared" ref="M4:N9" si="0">SUMIFS($D:$D,$C:$C,$J4,$B:$B,M$3)</f>
         <v>3.35</v>
       </c>
       <c r="N4" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J4,$B:$B,N$3)</f>
+        <f t="shared" si="0"/>
         <v>2.84</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -2079,24 +2440,24 @@
         <v>2019</v>
       </c>
       <c r="K5" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J5,$B:$B,K$3)</f>
+        <f t="shared" ref="K5:L10" si="1">SUMIFS($D:$D,$C:$C,$J5,$B:$B,K$3)</f>
         <v>2.88</v>
       </c>
       <c r="L5" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J5,$B:$B,L$3)</f>
+        <f t="shared" si="1"/>
         <v>3.24</v>
       </c>
       <c r="M5" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J5,$B:$B,M$3)</f>
+        <f t="shared" si="0"/>
         <v>3.85</v>
       </c>
       <c r="N5" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J5,$B:$B,N$3)</f>
+        <f t="shared" si="0"/>
         <v>3.11</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="12"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -2116,24 +2477,24 @@
         <v>2020</v>
       </c>
       <c r="K6" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J6,$B:$B,K$3)</f>
+        <f t="shared" si="1"/>
         <v>4.8600000000000003</v>
       </c>
       <c r="L6" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J6,$B:$B,L$3)</f>
+        <f t="shared" si="1"/>
         <v>5.08</v>
       </c>
       <c r="M6" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J6,$B:$B,M$3)</f>
+        <f t="shared" si="0"/>
         <v>5.09</v>
       </c>
       <c r="N6" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J6,$B:$B,N$3)</f>
+        <f t="shared" si="0"/>
         <v>3.76</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -2153,24 +2514,24 @@
         <v>2021</v>
       </c>
       <c r="K7" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J7,$B:$B,K$3)</f>
+        <f t="shared" si="1"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="L7" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J7,$B:$B,L$3)</f>
+        <f t="shared" si="1"/>
         <v>4.9400000000000004</v>
       </c>
       <c r="M7" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J7,$B:$B,M$3)</f>
+        <f t="shared" si="0"/>
         <v>5.54</v>
       </c>
       <c r="N7" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J7,$B:$B,N$3)</f>
+        <f t="shared" si="0"/>
         <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="A8" s="12">
         <v>20</v>
       </c>
       <c r="B8" t="s">
@@ -2192,24 +2553,24 @@
         <v>2022</v>
       </c>
       <c r="K8" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J8,$B:$B,K$3)</f>
+        <f t="shared" si="1"/>
         <v>6.57</v>
       </c>
       <c r="L8" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J8,$B:$B,L$3)</f>
+        <f t="shared" si="1"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="M8" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J8,$B:$B,M$3)</f>
+        <f t="shared" si="0"/>
         <v>6.26</v>
       </c>
       <c r="N8" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J8,$B:$B,N$3)</f>
+        <f t="shared" si="0"/>
         <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -2229,24 +2590,24 @@
         <v>2023</v>
       </c>
       <c r="K9" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J9,$B:$B,K$3)</f>
+        <f t="shared" si="1"/>
         <v>5.18</v>
       </c>
       <c r="L9" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J9,$B:$B,L$3)</f>
+        <f t="shared" si="1"/>
         <v>6.18</v>
       </c>
       <c r="M9" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J9,$B:$B,M$3)</f>
+        <f t="shared" si="0"/>
         <v>5.88</v>
       </c>
       <c r="N9" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J9,$B:$B,N$3)</f>
+        <f t="shared" si="0"/>
         <v>5.39</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -2266,11 +2627,11 @@
         <v>2024</v>
       </c>
       <c r="K10" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J10,$B:$B,K$3)</f>
+        <f t="shared" si="1"/>
         <v>7.63</v>
       </c>
       <c r="L10" s="8">
-        <f>SUMIFS($D:$D,$C:$C,$J10,$B:$B,L$3)</f>
+        <f t="shared" si="1"/>
         <v>6.88</v>
       </c>
       <c r="M10" s="8" t="s">
@@ -2281,7 +2642,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -2299,7 +2660,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="A12" s="12">
         <v>21</v>
       </c>
       <c r="B12" t="s">
@@ -2319,7 +2680,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -2340,7 +2701,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -2358,7 +2719,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="12"/>
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -2389,7 +2750,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
+      <c r="A16" s="12">
         <v>22</v>
       </c>
       <c r="B16" t="s">
@@ -2417,16 +2778,16 @@
         <v>7</v>
       </c>
       <c r="M16" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J16,$B:$B,M$3)</f>
+        <f t="shared" ref="M16:N21" si="2">SUMIFS($E:$E,$C:$C,$J16,$B:$B,M$3)</f>
         <v>1.92</v>
       </c>
       <c r="N16" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J16,$B:$B,N$3)</f>
+        <f t="shared" si="2"/>
         <v>1.23</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -2446,24 +2807,24 @@
         <v>2019</v>
       </c>
       <c r="K17" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J17,$B:$B,K$3)</f>
+        <f t="shared" ref="K17:L22" si="3">SUMIFS($E:$E,$C:$C,$J17,$B:$B,K$3)</f>
         <v>1.24</v>
       </c>
       <c r="L17" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J17,$B:$B,L$3)</f>
+        <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
       <c r="M17" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J17,$B:$B,M$3)</f>
+        <f t="shared" si="2"/>
         <v>1.56</v>
       </c>
       <c r="N17" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J17,$B:$B,N$3)</f>
+        <f t="shared" si="2"/>
         <v>1.48</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -2483,24 +2844,24 @@
         <v>2020</v>
       </c>
       <c r="K18" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J18,$B:$B,K$3)</f>
+        <f t="shared" si="3"/>
         <v>1.45</v>
       </c>
       <c r="L18" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J18,$B:$B,L$3)</f>
+        <f t="shared" si="3"/>
         <v>1.63</v>
       </c>
       <c r="M18" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J18,$B:$B,M$3)</f>
+        <f t="shared" si="2"/>
         <v>1.78</v>
       </c>
       <c r="N18" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J18,$B:$B,N$3)</f>
+        <f t="shared" si="2"/>
         <v>1.26</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -2520,24 +2881,24 @@
         <v>2021</v>
       </c>
       <c r="K19" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J19,$B:$B,K$3)</f>
+        <f t="shared" si="3"/>
         <v>0.98399999999999999</v>
       </c>
       <c r="L19" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J19,$B:$B,L$3)</f>
+        <f t="shared" si="3"/>
         <v>1.36</v>
       </c>
       <c r="M19" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J19,$B:$B,M$3)</f>
+        <f t="shared" si="2"/>
         <v>1.58</v>
       </c>
       <c r="N19" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J19,$B:$B,N$3)</f>
+        <f t="shared" si="2"/>
         <v>1.52</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+      <c r="A20" s="12">
         <v>23</v>
       </c>
       <c r="B20" t="s">
@@ -2559,24 +2920,24 @@
         <v>2022</v>
       </c>
       <c r="K20" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J20,$B:$B,K$3)</f>
+        <f t="shared" si="3"/>
         <v>1.21</v>
       </c>
       <c r="L20" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J20,$B:$B,L$3)</f>
+        <f t="shared" si="3"/>
         <v>1.54</v>
       </c>
       <c r="M20" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J20,$B:$B,M$3)</f>
+        <f t="shared" si="2"/>
         <v>1.71</v>
       </c>
       <c r="N20" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J20,$B:$B,N$3)</f>
+        <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
+      <c r="A21" s="12"/>
       <c r="B21" t="s">
         <v>4</v>
       </c>
@@ -2596,24 +2957,24 @@
         <v>2023</v>
       </c>
       <c r="K21" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J21,$B:$B,K$3)</f>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="L21" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J21,$B:$B,L$3)</f>
+        <f t="shared" si="3"/>
         <v>1.46</v>
       </c>
       <c r="M21" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J21,$B:$B,M$3)</f>
+        <f t="shared" si="2"/>
         <v>1.52</v>
       </c>
       <c r="N21" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J21,$B:$B,N$3)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -2633,11 +2994,11 @@
         <v>2024</v>
       </c>
       <c r="K22" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J22,$B:$B,K$3)</f>
+        <f t="shared" si="3"/>
         <v>0.95499999999999996</v>
       </c>
       <c r="L22" s="8">
-        <f>SUMIFS($E:$E,$C:$C,$J22,$B:$B,L$3)</f>
+        <f t="shared" si="3"/>
         <v>1.45</v>
       </c>
       <c r="M22" s="8" t="s">
@@ -2648,7 +3009,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12"/>
       <c r="B23" t="s">
         <v>6</v>
       </c>
@@ -2666,7 +3027,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
+      <c r="A24" s="12">
         <v>24</v>
       </c>
       <c r="B24" t="s">
@@ -2686,7 +3047,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
+      <c r="A25" s="12"/>
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -2732,11 +3093,11 @@
         <v>7</v>
       </c>
       <c r="M28" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J28,$B:$B,M$3)</f>
+        <f t="shared" ref="M28:N33" si="4">SUMIFS($F:$F,$C:$C,$J28,$B:$B,M$3)</f>
         <v>0.48099999999999998</v>
       </c>
       <c r="N28" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J28,$B:$B,N$3)</f>
+        <f t="shared" si="4"/>
         <v>0.48099999999999998</v>
       </c>
     </row>
@@ -2745,19 +3106,19 @@
         <v>2019</v>
       </c>
       <c r="K29" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J29,$B:$B,K$3)</f>
+        <f t="shared" ref="K29:L34" si="5">SUMIFS($F:$F,$C:$C,$J29,$B:$B,K$3)</f>
         <v>0.48299999999999998</v>
       </c>
       <c r="L29" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J29,$B:$B,L$3)</f>
+        <f t="shared" si="5"/>
         <v>0.48299999999999998</v>
       </c>
       <c r="M29" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J29,$B:$B,M$3)</f>
+        <f t="shared" si="4"/>
         <v>0.48299999999999998</v>
       </c>
       <c r="N29" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J29,$B:$B,N$3)</f>
+        <f t="shared" si="4"/>
         <v>0.48299999999999998</v>
       </c>
     </row>
@@ -2766,19 +3127,19 @@
         <v>2020</v>
       </c>
       <c r="K30" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J30,$B:$B,K$3)</f>
+        <f t="shared" si="5"/>
         <v>0.55300000000000005</v>
       </c>
       <c r="L30" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J30,$B:$B,L$3)</f>
+        <f t="shared" si="5"/>
         <v>0.55300000000000005</v>
       </c>
       <c r="M30" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J30,$B:$B,M$3)</f>
+        <f t="shared" si="4"/>
         <v>0.55300000000000005</v>
       </c>
       <c r="N30" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J30,$B:$B,N$3)</f>
+        <f t="shared" si="4"/>
         <v>0.55300000000000005</v>
       </c>
     </row>
@@ -2787,74 +3148,75 @@
         <v>2021</v>
       </c>
       <c r="K31" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J31,$B:$B,K$3)</f>
+        <f t="shared" si="5"/>
         <v>0.65200000000000002</v>
       </c>
       <c r="L31" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J31,$B:$B,L$3)</f>
+        <f t="shared" si="5"/>
         <v>0.65200000000000002</v>
       </c>
       <c r="M31" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J31,$B:$B,M$3)</f>
+        <f t="shared" si="4"/>
         <v>0.65200000000000002</v>
       </c>
       <c r="N31" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J31,$B:$B,N$3)</f>
+        <f t="shared" si="4"/>
         <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E32" s="14"/>
       <c r="J32" s="5">
         <v>2022</v>
       </c>
       <c r="K32" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J32,$B:$B,K$3)</f>
+        <f t="shared" si="5"/>
         <v>0.67</v>
       </c>
       <c r="L32" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J32,$B:$B,L$3)</f>
+        <f t="shared" si="5"/>
         <v>0.67</v>
       </c>
       <c r="M32" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J32,$B:$B,M$3)</f>
+        <f t="shared" si="4"/>
         <v>0.67</v>
       </c>
       <c r="N32" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J32,$B:$B,N$3)</f>
+        <f t="shared" si="4"/>
         <v>0.67</v>
       </c>
     </row>
-    <row r="33" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:14" x14ac:dyDescent="0.2">
       <c r="J33" s="5">
         <v>2023</v>
       </c>
       <c r="K33" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J33,$B:$B,K$3)</f>
+        <f t="shared" si="5"/>
         <v>0.67</v>
       </c>
       <c r="L33" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J33,$B:$B,L$3)</f>
+        <f t="shared" si="5"/>
         <v>0.67</v>
       </c>
       <c r="M33" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J33,$B:$B,M$3)</f>
+        <f t="shared" si="4"/>
         <v>0.67</v>
       </c>
       <c r="N33" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J33,$B:$B,N$3)</f>
+        <f t="shared" si="4"/>
         <v>0.67</v>
       </c>
     </row>
-    <row r="34" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:14" x14ac:dyDescent="0.2">
       <c r="J34" s="5">
         <v>2024</v>
       </c>
       <c r="K34" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J34,$B:$B,K$3)</f>
+        <f t="shared" si="5"/>
         <v>0.67</v>
       </c>
       <c r="L34" s="8">
-        <f>SUMIFS($F:$F,$C:$C,$J34,$B:$B,L$3)</f>
+        <f t="shared" si="5"/>
         <v>0.67</v>
       </c>
       <c r="M34" s="8" t="s">
@@ -2863,6 +3225,12 @@
       <c r="N34" s="8" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="36" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E37" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:F25" xr:uid="{78196C85-F470-7B4D-ABB1-385F3AAEA1BD}"/>
